--- a/non_numeric_features.xlsx
+++ b/non_numeric_features.xlsx
@@ -9098,7 +9098,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Koelvloeistof</t>
+          <t>Coolant</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
@@ -15674,7 +15674,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Koelvloeistofleiding</t>
+          <t>Coolant</t>
         </is>
       </c>
       <c r="F188" t="inlineStr"/>
@@ -15764,7 +15764,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Koelvloeistofleiding</t>
+          <t>Coolant</t>
         </is>
       </c>
       <c r="F189" t="inlineStr"/>
@@ -17636,7 +17636,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Klep.deksel pakking</t>
+          <t>ValveCoverGasket</t>
         </is>
       </c>
       <c r="F212" t="inlineStr"/>
@@ -50618,7 +50618,7 @@
       </c>
       <c r="E623" t="inlineStr">
         <is>
-          <t>Relais</t>
+          <t>ElectricalCircuit</t>
         </is>
       </c>
       <c r="F623" t="inlineStr"/>
@@ -50706,7 +50706,7 @@
       </c>
       <c r="E624" t="inlineStr">
         <is>
-          <t>Elek.connector</t>
+          <t>ElectricalCircuit</t>
         </is>
       </c>
       <c r="F624" t="inlineStr"/>
@@ -51214,7 +51214,7 @@
       </c>
       <c r="E630" t="inlineStr">
         <is>
-          <t>Paneelschakelaar</t>
+          <t>ElectricalCircuit</t>
         </is>
       </c>
       <c r="F630" t="inlineStr"/>
@@ -51918,7 +51918,7 @@
       </c>
       <c r="E638" t="inlineStr">
         <is>
-          <t>Elek.connector</t>
+          <t>ElectricalCircuit</t>
         </is>
       </c>
       <c r="F638" t="inlineStr"/>
@@ -56596,7 +56596,7 @@
       </c>
       <c r="E697" t="inlineStr">
         <is>
-          <t>Koelvloeistof</t>
+          <t>Coolant</t>
         </is>
       </c>
       <c r="F697" t="inlineStr"/>
@@ -69420,7 +69420,7 @@
       </c>
       <c r="E853" t="inlineStr">
         <is>
-          <t>Koelvloeistof</t>
+          <t>Coolant</t>
         </is>
       </c>
       <c r="F853" t="inlineStr"/>
